--- a/Predictions_QWEN0.5B/wave123_all_predictions/finetuned_predictions_imputedw123.xlsx
+++ b/Predictions_QWEN0.5B/wave123_all_predictions/finetuned_predictions_imputedw123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave123_all_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F3EBA-2709-468D-B51C-9AC98FA7BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F12CE-3C90-4146-B109-3BF7EF0FE8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -169,7 +169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4278,7 +4277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4582B97E-212F-4B69-B24A-C5A1506B955C}" name="PivotTable5" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4582B97E-212F-4B69-B24A-C5A1506B955C}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -4634,21 +4633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>0.99999862050148125</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4827,14 +4826,13 @@
       <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>543</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>214</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>757</v>
       </c>
       <c r="S7" t="s">
@@ -4850,7 +4848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4872,14 +4870,13 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>231</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>256</v>
       </c>
       <c r="T8" t="s">
@@ -4889,7 +4886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -4911,12 +4908,8 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -4938,18 +4931,17 @@
       <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>568</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>445</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>1013</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4989,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5013,7 +5005,7 @@
         <v>0.7640671273445212</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5032,7 @@
         <v>0.22803553800592299</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5067,7 +5059,7 @@
         <v>0.53689174290913</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5087,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -5114,7 +5106,7 @@
         <v>0.49798765429538872</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -5154,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5174,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -5194,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -5274,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -5294,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5314,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -5354,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -5374,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -5394,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -5414,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -5434,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -5454,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -5474,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -5534,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -5554,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -5574,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -5594,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -5614,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -5634,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -5654,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -5674,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -5694,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5714,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -5734,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5754,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -5774,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -5794,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -5834,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -5854,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -5874,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -5894,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -5914,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -5934,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -5994,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -6014,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -6054,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -6074,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -6134,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -6154,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -6174,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -6194,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -6214,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -6234,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -6254,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -6274,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -6294,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -6314,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -6334,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6354,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -6394,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6414,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -6434,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -6454,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -6474,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -6494,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -6514,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -6534,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -6554,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -6574,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -6594,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -6614,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -6634,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -6654,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -6674,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -6694,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -6714,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -6754,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -6774,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -6814,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -6834,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -6854,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -6914,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -6954,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -6994,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -7014,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -7054,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -7074,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -7094,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -7114,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -7134,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -7154,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -7194,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -7214,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -7234,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -7254,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -7274,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -7294,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -7354,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -7374,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -7394,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -7414,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -7434,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -7454,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -7474,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -7494,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -7534,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -7574,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -7594,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -7614,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -7634,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -7654,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -7674,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -7694,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -7714,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -7734,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -7794,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -7814,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -7834,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -7874,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -7894,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -7934,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -7954,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -7974,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -7994,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -8014,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -8034,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -8074,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -8094,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -8114,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -8134,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -8154,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -8174,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -8194,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -8214,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -8234,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -8254,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -8274,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -8294,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -8314,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -8334,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -8354,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -8374,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -8394,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -8414,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -8434,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -8454,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -8474,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -8494,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -8514,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -8534,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -8554,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -8574,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -8594,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -8614,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -8634,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -8674,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -8694,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -8714,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -8734,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -8754,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -8774,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -8794,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -8814,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -8834,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -8854,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -8874,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -8894,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -8914,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -8934,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -8954,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -8974,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -8994,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -9014,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -9034,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -9054,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -9074,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -9114,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -9134,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -9154,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -9174,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -9194,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -9214,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -9234,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -9254,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -9274,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -9294,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -9314,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -9334,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -9374,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -9394,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -9414,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -9434,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>2</v>
       </c>
@@ -9454,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>2</v>
       </c>
@@ -9474,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -9494,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -9514,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -9534,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -9554,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -9574,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -9594,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -9614,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -9634,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -9654,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -9674,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -9694,7 +9686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -9714,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -9734,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -9754,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -9794,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -9814,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -9854,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -9874,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -9894,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -9914,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -9934,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -9954,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -9974,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -9994,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -10014,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -10034,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -10054,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>3</v>
       </c>
@@ -10074,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>3</v>
       </c>
@@ -10094,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>3</v>
       </c>
@@ -10114,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -10134,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -10154,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -10174,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -10214,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -10234,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -10254,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>3</v>
       </c>
@@ -10274,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -10294,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>3</v>
       </c>
@@ -10314,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>3</v>
       </c>
@@ -10334,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>2</v>
       </c>
@@ -10354,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -10374,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>3</v>
       </c>
@@ -10394,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -10414,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>3</v>
       </c>
@@ -10434,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -10454,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -10474,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>2</v>
       </c>
@@ -10494,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -10534,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -10554,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>2</v>
       </c>
@@ -10574,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -10594,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -10614,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -10634,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>3</v>
       </c>
@@ -10654,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>3</v>
       </c>
@@ -10674,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -10694,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -10714,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -10734,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>3</v>
       </c>
@@ -10754,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -10774,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -10794,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -10814,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -10834,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -10854,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -10874,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10894,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -10914,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -10954,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -10974,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -10994,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>2</v>
       </c>
@@ -11014,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>2</v>
       </c>
@@ -11034,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -11054,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -11074,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>3</v>
       </c>
@@ -11094,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>3</v>
       </c>
@@ -11114,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>2</v>
       </c>
@@ -11134,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -11154,7 +11146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>2</v>
       </c>
@@ -11174,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>2</v>
       </c>
@@ -11194,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>2</v>
       </c>
@@ -11214,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -11234,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -11254,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>2</v>
       </c>
@@ -11274,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>3</v>
       </c>
@@ -11294,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -11314,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>2</v>
       </c>
@@ -11334,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -11354,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -11374,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>2</v>
       </c>
@@ -11394,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -11414,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>2</v>
       </c>
@@ -11434,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>2</v>
       </c>
@@ -11454,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>2</v>
       </c>
@@ -11474,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>2</v>
       </c>
@@ -11494,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>3</v>
       </c>
@@ -11514,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>2</v>
       </c>
@@ -11534,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>2</v>
       </c>
@@ -11554,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>2</v>
       </c>
@@ -11574,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -11594,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -11614,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>2</v>
       </c>
@@ -11634,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -11654,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -11674,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>2</v>
       </c>
@@ -11694,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>2</v>
       </c>
@@ -11714,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>2</v>
       </c>
@@ -11734,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>2</v>
       </c>
@@ -11754,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>2</v>
       </c>
@@ -11774,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>2</v>
       </c>
@@ -11794,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -11814,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -11834,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>2</v>
       </c>
@@ -11854,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>2</v>
       </c>
@@ -11874,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>3</v>
       </c>
@@ -11894,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -11914,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>3</v>
       </c>
@@ -11954,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>2</v>
       </c>
@@ -11974,7 +11966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>3</v>
       </c>
@@ -11994,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>2</v>
       </c>
@@ -12014,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>3</v>
       </c>
@@ -12034,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>3</v>
       </c>
@@ -12054,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>2</v>
       </c>
@@ -12074,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>2</v>
       </c>
@@ -12094,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -12114,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>2</v>
       </c>
@@ -12134,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>2</v>
       </c>
@@ -12154,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>2</v>
       </c>
@@ -12174,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>3</v>
       </c>
@@ -12194,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>3</v>
       </c>
@@ -12214,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -12234,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>2</v>
       </c>
@@ -12254,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>2</v>
       </c>
@@ -12274,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -12294,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>2</v>
       </c>
@@ -12314,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>2</v>
       </c>
@@ -12334,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>2</v>
       </c>
@@ -12354,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>2</v>
       </c>
@@ -12374,7 +12366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -12394,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>3</v>
       </c>
@@ -12414,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -12434,7 +12426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -12454,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>2</v>
       </c>
@@ -12474,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>2</v>
       </c>
@@ -12494,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>2</v>
       </c>
@@ -12514,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>2</v>
       </c>
@@ -12534,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>3</v>
       </c>
@@ -12554,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>2</v>
       </c>
@@ -12574,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>2</v>
       </c>
@@ -12594,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>2</v>
       </c>
@@ -12614,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>3</v>
       </c>
@@ -12634,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>3</v>
       </c>
@@ -12654,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>2</v>
       </c>
@@ -12674,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>2</v>
       </c>
@@ -12694,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>2</v>
       </c>
@@ -12714,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>3</v>
       </c>
@@ -12734,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>2</v>
       </c>
@@ -12754,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>2</v>
       </c>
@@ -12774,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>2</v>
       </c>
@@ -12794,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>2</v>
       </c>
@@ -12814,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>2</v>
       </c>
@@ -12834,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>2</v>
       </c>
@@ -12854,7 +12846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>2</v>
       </c>
@@ -12874,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>2</v>
       </c>
@@ -12894,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>2</v>
       </c>
@@ -12914,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>2</v>
       </c>
@@ -12934,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>3</v>
       </c>
@@ -12954,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>2</v>
       </c>
@@ -12974,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>2</v>
       </c>
@@ -12994,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>3</v>
       </c>
@@ -13014,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>3</v>
       </c>
@@ -13054,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>3</v>
       </c>
@@ -13074,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>3</v>
       </c>
@@ -13094,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>2</v>
       </c>
@@ -13114,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>3</v>
       </c>
@@ -13134,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>2</v>
       </c>
@@ -13154,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>2</v>
       </c>
@@ -13174,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -13194,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -13214,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2</v>
       </c>
@@ -13234,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2</v>
       </c>
@@ -13254,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2</v>
       </c>
@@ -13274,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2</v>
       </c>
@@ -13294,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2</v>
       </c>
@@ -13314,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>3</v>
       </c>
@@ -13334,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2</v>
       </c>
@@ -13354,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>2</v>
       </c>
@@ -13374,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>2</v>
       </c>
@@ -13394,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>2</v>
       </c>
@@ -13414,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>2</v>
       </c>
@@ -13434,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>2</v>
       </c>
@@ -13454,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>2</v>
       </c>
@@ -13474,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>2</v>
       </c>
@@ -13494,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>2</v>
       </c>
@@ -13514,7 +13506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2</v>
       </c>
@@ -13534,7 +13526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>2</v>
       </c>
@@ -13554,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>2</v>
       </c>
@@ -13574,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>2</v>
       </c>
@@ -13594,7 +13586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>2</v>
       </c>
@@ -13614,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>2</v>
       </c>
@@ -13634,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>2</v>
       </c>
@@ -13654,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>2</v>
       </c>
@@ -13674,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>3</v>
       </c>
@@ -13694,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>2</v>
       </c>
@@ -13714,7 +13706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>2</v>
       </c>
@@ -13734,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>3</v>
       </c>
@@ -13754,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>2</v>
       </c>
@@ -13774,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>2</v>
       </c>
@@ -13794,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>3</v>
       </c>
@@ -13814,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>3</v>
       </c>
@@ -13834,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>2</v>
       </c>
@@ -13854,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>3</v>
       </c>
@@ -13874,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>3</v>
       </c>
@@ -13894,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>2</v>
       </c>
@@ -13914,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>3</v>
       </c>
@@ -13934,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>2</v>
       </c>
@@ -13954,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>2</v>
       </c>
@@ -13974,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>3</v>
       </c>
@@ -13994,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>3</v>
       </c>
@@ -14014,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>2</v>
       </c>
@@ -14034,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2</v>
       </c>
@@ -14054,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>2</v>
       </c>
@@ -14074,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2</v>
       </c>
@@ -14094,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>3</v>
       </c>
@@ -14114,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2</v>
       </c>
@@ -14134,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2</v>
       </c>
@@ -14154,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>3</v>
       </c>
@@ -14174,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>2</v>
       </c>
@@ -14194,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>2</v>
       </c>
@@ -14214,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>3</v>
       </c>
@@ -14234,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>3</v>
       </c>
@@ -14254,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>3</v>
       </c>
@@ -14274,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>3</v>
       </c>
@@ -14294,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>3</v>
       </c>
@@ -14314,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>2</v>
       </c>
@@ -14334,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>3</v>
       </c>
@@ -14354,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>3</v>
       </c>
@@ -14374,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>2</v>
       </c>
@@ -14394,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>2</v>
       </c>
@@ -14414,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>2</v>
       </c>
@@ -14434,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>2</v>
       </c>
@@ -14454,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>3</v>
       </c>
@@ -14474,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2</v>
       </c>
@@ -14494,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2</v>
       </c>
@@ -14514,7 +14506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2</v>
       </c>
@@ -14534,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2</v>
       </c>
@@ -14554,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2</v>
       </c>
@@ -14574,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2</v>
       </c>
@@ -14594,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2</v>
       </c>
@@ -14614,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2</v>
       </c>
@@ -14634,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2</v>
       </c>
@@ -14654,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2</v>
       </c>
@@ -14674,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2</v>
       </c>
@@ -14694,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>3</v>
       </c>
@@ -14714,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>3</v>
       </c>
@@ -14734,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2</v>
       </c>
@@ -14754,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2</v>
       </c>
@@ -14774,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2</v>
       </c>
@@ -14794,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>3</v>
       </c>
@@ -14814,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2</v>
       </c>
@@ -14834,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2</v>
       </c>
@@ -14854,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2</v>
       </c>
@@ -14874,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2</v>
       </c>
@@ -14894,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>3</v>
       </c>
@@ -14914,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2</v>
       </c>
@@ -14934,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>3</v>
       </c>
@@ -14954,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2</v>
       </c>
@@ -14974,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2</v>
       </c>
@@ -14994,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2</v>
       </c>
@@ -15014,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>3</v>
       </c>
@@ -15034,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>2</v>
       </c>
@@ -15054,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>2</v>
       </c>
@@ -15074,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>3</v>
       </c>
@@ -15094,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>2</v>
       </c>
@@ -15114,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>3</v>
       </c>
@@ -15134,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>3</v>
       </c>
@@ -15154,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2</v>
       </c>
@@ -15174,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>2</v>
       </c>
@@ -15194,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>2</v>
       </c>
@@ -15214,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>2</v>
       </c>
@@ -15234,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>2</v>
       </c>
@@ -15254,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>3</v>
       </c>
@@ -15274,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>2</v>
       </c>
@@ -15294,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>2</v>
       </c>
@@ -15314,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>2</v>
       </c>
@@ -15334,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>3</v>
       </c>
@@ -15354,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>2</v>
       </c>
@@ -15374,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>2</v>
       </c>
@@ -15394,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>2</v>
       </c>
@@ -15414,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>2</v>
       </c>
@@ -15434,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>2</v>
       </c>
@@ -15454,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>2</v>
       </c>
@@ -15474,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>2</v>
       </c>
@@ -15494,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>2</v>
       </c>
@@ -15514,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>2</v>
       </c>
@@ -15534,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>2</v>
       </c>
@@ -15554,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>3</v>
       </c>
@@ -15574,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>2</v>
       </c>
@@ -15594,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>2</v>
       </c>
@@ -15614,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>2</v>
       </c>
@@ -15634,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>3</v>
       </c>
@@ -15654,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>2</v>
       </c>
@@ -15674,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>2</v>
       </c>
@@ -15694,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>2</v>
       </c>
@@ -15714,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>2</v>
       </c>
@@ -15734,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2</v>
       </c>
@@ -15754,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2</v>
       </c>
@@ -15774,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>3</v>
       </c>
@@ -15794,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>3</v>
       </c>
@@ -15814,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>3</v>
       </c>
@@ -15834,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>2</v>
       </c>
@@ -15854,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>2</v>
       </c>
@@ -15874,7 +15866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>3</v>
       </c>
@@ -15894,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>2</v>
       </c>
@@ -15914,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>2</v>
       </c>
@@ -15934,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>2</v>
       </c>
@@ -15954,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>3</v>
       </c>
@@ -15974,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>3</v>
       </c>
@@ -15994,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>2</v>
       </c>
@@ -16014,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>2</v>
       </c>
@@ -16034,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>2</v>
       </c>
@@ -16054,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>2</v>
       </c>
@@ -16074,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>2</v>
       </c>
@@ -16094,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>2</v>
       </c>
@@ -16114,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>2</v>
       </c>
@@ -16134,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>2</v>
       </c>
@@ -16154,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>2</v>
       </c>
@@ -16174,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>2</v>
       </c>
@@ -16194,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>2</v>
       </c>
@@ -16214,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>2</v>
       </c>
@@ -16234,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>2</v>
       </c>
@@ -16254,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>2</v>
       </c>
@@ -16274,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>2</v>
       </c>
@@ -16294,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>2</v>
       </c>
@@ -16314,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>2</v>
       </c>
@@ -16334,7 +16326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>2</v>
       </c>
@@ -16354,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>2</v>
       </c>
@@ -16374,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>2</v>
       </c>
@@ -16394,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>2</v>
       </c>
@@ -16414,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>2</v>
       </c>
@@ -16434,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>2</v>
       </c>
@@ -16454,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>2</v>
       </c>
@@ -16474,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>2</v>
       </c>
@@ -16494,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>2</v>
       </c>
@@ -16514,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>2</v>
       </c>
@@ -16534,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>2</v>
       </c>
@@ -16554,7 +16546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>3</v>
       </c>
@@ -16574,7 +16566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>2</v>
       </c>
@@ -16594,7 +16586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>2</v>
       </c>
@@ -16614,7 +16606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>2</v>
       </c>
@@ -16634,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>2</v>
       </c>
@@ -16654,7 +16646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>3</v>
       </c>
@@ -16674,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>3</v>
       </c>
@@ -16694,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>3</v>
       </c>
@@ -16714,7 +16706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>2</v>
       </c>
@@ -16734,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>2</v>
       </c>
@@ -16754,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>2</v>
       </c>
@@ -16774,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>2</v>
       </c>
@@ -16794,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>2</v>
       </c>
@@ -16814,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>2</v>
       </c>
@@ -16834,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>2</v>
       </c>
@@ -16854,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>2</v>
       </c>
@@ -16874,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>2</v>
       </c>
@@ -16894,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>2</v>
       </c>
@@ -16914,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>2</v>
       </c>
@@ -16934,7 +16926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>2</v>
       </c>
@@ -16954,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>2</v>
       </c>
@@ -16974,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>2</v>
       </c>
@@ -16994,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>2</v>
       </c>
@@ -17014,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>2</v>
       </c>
@@ -17034,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>3</v>
       </c>
@@ -17054,7 +17046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>2</v>
       </c>
@@ -17074,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>2</v>
       </c>
@@ -17094,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>2</v>
       </c>
@@ -17114,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>2</v>
       </c>
@@ -17134,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>2</v>
       </c>
@@ -17154,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>2</v>
       </c>
@@ -17174,7 +17166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>2</v>
       </c>
@@ -17194,7 +17186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>2</v>
       </c>
@@ -17214,7 +17206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>2</v>
       </c>
@@ -17234,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>2</v>
       </c>
@@ -17254,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>2</v>
       </c>
@@ -17274,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>2</v>
       </c>
@@ -17294,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>2</v>
       </c>
@@ -17334,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>3</v>
       </c>
@@ -17354,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2</v>
       </c>
@@ -17374,7 +17366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>3</v>
       </c>
@@ -17394,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>3</v>
       </c>
@@ -17414,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>3</v>
       </c>
@@ -17434,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2</v>
       </c>
@@ -17454,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2</v>
       </c>
@@ -17474,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2</v>
       </c>
@@ -17494,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2</v>
       </c>
@@ -17514,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2</v>
       </c>
@@ -17534,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>2</v>
       </c>
@@ -17554,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>3</v>
       </c>
@@ -17574,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>2</v>
       </c>
@@ -17594,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>2</v>
       </c>
@@ -17614,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>2</v>
       </c>
@@ -17634,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>2</v>
       </c>
@@ -17654,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>2</v>
       </c>
@@ -17674,7 +17666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>2</v>
       </c>
@@ -17694,7 +17686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>2</v>
       </c>
@@ -17714,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>2</v>
       </c>
@@ -17734,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>2</v>
       </c>
@@ -17754,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>2</v>
       </c>
@@ -17774,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>2</v>
       </c>
@@ -17794,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>2</v>
       </c>
@@ -17814,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>2</v>
       </c>
@@ -17834,7 +17826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>2</v>
       </c>
@@ -17854,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>2</v>
       </c>
@@ -17874,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>2</v>
       </c>
@@ -17894,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>2</v>
       </c>
@@ -17914,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>2</v>
       </c>
@@ -17934,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>2</v>
       </c>
@@ -17954,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>2</v>
       </c>
@@ -17974,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>2</v>
       </c>
@@ -17994,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2</v>
       </c>
@@ -18014,7 +18006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2</v>
       </c>
@@ -18034,7 +18026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>3</v>
       </c>
@@ -18054,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>2</v>
       </c>
@@ -18074,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>2</v>
       </c>
@@ -18094,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>2</v>
       </c>
@@ -18114,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>2</v>
       </c>
@@ -18134,7 +18126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>2</v>
       </c>
@@ -18154,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>2</v>
       </c>
@@ -18174,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>2</v>
       </c>
@@ -18194,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>2</v>
       </c>
@@ -18214,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>2</v>
       </c>
@@ -18234,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2</v>
       </c>
@@ -18254,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>2</v>
       </c>
@@ -18274,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2</v>
       </c>
@@ -18294,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>3</v>
       </c>
@@ -18314,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2</v>
       </c>
@@ -18334,7 +18326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2</v>
       </c>
@@ -18354,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2</v>
       </c>
@@ -18374,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>2</v>
       </c>
@@ -18394,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>2</v>
       </c>
@@ -18414,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>2</v>
       </c>
@@ -18434,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>3</v>
       </c>
@@ -18454,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>2</v>
       </c>
@@ -18474,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>3</v>
       </c>
@@ -18494,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>3</v>
       </c>
@@ -18514,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>3</v>
       </c>
@@ -18534,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>2</v>
       </c>
@@ -18554,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>2</v>
       </c>
@@ -18574,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>2</v>
       </c>
@@ -18594,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>2</v>
       </c>
@@ -18614,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>2</v>
       </c>
@@ -18634,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>3</v>
       </c>
@@ -18654,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>3</v>
       </c>
@@ -18674,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>2</v>
       </c>
@@ -18694,7 +18686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>2</v>
       </c>
@@ -18714,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>2</v>
       </c>
@@ -18734,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>2</v>
       </c>
@@ -18754,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>2</v>
       </c>
@@ -18774,7 +18766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>3</v>
       </c>
@@ -18794,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>2</v>
       </c>
@@ -18814,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>2</v>
       </c>
@@ -18834,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>2</v>
       </c>
@@ -18854,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>3</v>
       </c>
@@ -18874,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>3</v>
       </c>
@@ -18894,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>3</v>
       </c>
@@ -18914,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>2</v>
       </c>
@@ -18934,7 +18926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>2</v>
       </c>
@@ -18954,7 +18946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>2</v>
       </c>
@@ -18974,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>2</v>
       </c>
@@ -18994,7 +18986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>2</v>
       </c>
@@ -19014,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>2</v>
       </c>
@@ -19034,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>2</v>
       </c>
@@ -19054,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>2</v>
       </c>
@@ -19074,7 +19066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>3</v>
       </c>
@@ -19094,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>2</v>
       </c>
@@ -19114,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>2</v>
       </c>
@@ -19134,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>2</v>
       </c>
@@ -19154,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>3</v>
       </c>
@@ -19174,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>3</v>
       </c>
@@ -19194,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>3</v>
       </c>
@@ -19214,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>3</v>
       </c>
@@ -19234,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>3</v>
       </c>
@@ -19254,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>3</v>
       </c>
@@ -19274,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>2</v>
       </c>
@@ -19294,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>2</v>
       </c>
@@ -19314,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>2</v>
       </c>
@@ -19334,7 +19326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>2</v>
       </c>
@@ -19354,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>2</v>
       </c>
@@ -19374,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>2</v>
       </c>
@@ -19394,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>3</v>
       </c>
@@ -19414,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>2</v>
       </c>
@@ -19434,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>3</v>
       </c>
@@ -19454,7 +19446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>2</v>
       </c>
@@ -19474,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>2</v>
       </c>
@@ -19494,7 +19486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>2</v>
       </c>
@@ -19514,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>2</v>
       </c>
@@ -19534,7 +19526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>3</v>
       </c>
@@ -19554,7 +19546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>2</v>
       </c>
@@ -19574,7 +19566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>2</v>
       </c>
@@ -19594,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>3</v>
       </c>
@@ -19614,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>3</v>
       </c>
@@ -19634,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>2</v>
       </c>
@@ -19654,7 +19646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>2</v>
       </c>
@@ -19674,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>2</v>
       </c>
@@ -19694,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>2</v>
       </c>
@@ -19714,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>3</v>
       </c>
@@ -19734,7 +19726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>2</v>
       </c>
@@ -19754,7 +19746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>2</v>
       </c>
@@ -19774,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>3</v>
       </c>
@@ -19794,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>2</v>
       </c>
@@ -19814,7 +19806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>3</v>
       </c>
@@ -19834,7 +19826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>2</v>
       </c>
@@ -19854,7 +19846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>2</v>
       </c>
@@ -19874,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>2</v>
       </c>
@@ -19894,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>2</v>
       </c>
@@ -19914,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>3</v>
       </c>
@@ -19934,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>2</v>
       </c>
@@ -19954,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>2</v>
       </c>
@@ -19974,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>2</v>
       </c>
@@ -19994,7 +19986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>2</v>
       </c>
@@ -20014,7 +20006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>2</v>
       </c>
@@ -20034,7 +20026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>2</v>
       </c>
@@ -20054,7 +20046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>3</v>
       </c>
@@ -20074,7 +20066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>3</v>
       </c>
@@ -20094,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>3</v>
       </c>
@@ -20114,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>2</v>
       </c>
@@ -20134,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>3</v>
       </c>
@@ -20154,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>3</v>
       </c>
@@ -20174,7 +20166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>2</v>
       </c>
@@ -20194,7 +20186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>2</v>
       </c>
@@ -20214,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>2</v>
       </c>
@@ -20234,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>2</v>
       </c>
@@ -20254,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>2</v>
       </c>
@@ -20274,7 +20266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>2</v>
       </c>
@@ -20294,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>3</v>
       </c>
@@ -20314,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>3</v>
       </c>
@@ -20334,7 +20326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>2</v>
       </c>
@@ -20354,7 +20346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>2</v>
       </c>
@@ -20374,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>2</v>
       </c>
@@ -20394,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>3</v>
       </c>
@@ -20414,7 +20406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>2</v>
       </c>
@@ -20434,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>3</v>
       </c>
@@ -20454,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>2</v>
       </c>
@@ -20474,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>3</v>
       </c>
@@ -20494,7 +20486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>3</v>
       </c>
@@ -20514,7 +20506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>2</v>
       </c>
@@ -20534,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>2</v>
       </c>
@@ -20554,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>2</v>
       </c>
@@ -20574,7 +20566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>3</v>
       </c>
@@ -20594,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>3</v>
       </c>
@@ -20614,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>2</v>
       </c>
@@ -20634,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>3</v>
       </c>
@@ -20654,7 +20646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>3</v>
       </c>
@@ -20674,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>2</v>
       </c>
@@ -20694,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>3</v>
       </c>
@@ -20714,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>2</v>
       </c>
@@ -20734,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>2</v>
       </c>
@@ -20754,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>2</v>
       </c>
@@ -20774,7 +20766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>2</v>
       </c>
@@ -20794,7 +20786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>3</v>
       </c>
@@ -20814,7 +20806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>2</v>
       </c>
@@ -20834,7 +20826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +20846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>2</v>
       </c>
@@ -20874,7 +20866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>3</v>
       </c>
@@ -20894,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>3</v>
       </c>
@@ -20914,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>2</v>
       </c>
@@ -20934,7 +20926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>2</v>
       </c>
@@ -20954,7 +20946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>2</v>
       </c>
@@ -20974,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>3</v>
       </c>
@@ -20994,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>3</v>
       </c>
@@ -21014,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>2</v>
       </c>
@@ -21034,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>2</v>
       </c>
@@ -21054,7 +21046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>2</v>
       </c>
@@ -21074,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>2</v>
       </c>
@@ -21094,7 +21086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>3</v>
       </c>
@@ -21114,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>2</v>
       </c>
@@ -21134,7 +21126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>3</v>
       </c>
@@ -21154,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>2</v>
       </c>
@@ -21174,7 +21166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>2</v>
       </c>
@@ -21194,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>2</v>
       </c>
@@ -21214,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>2</v>
       </c>
@@ -21234,7 +21226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>3</v>
       </c>
@@ -21254,7 +21246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>3</v>
       </c>
@@ -21274,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>2</v>
       </c>
@@ -21294,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>3</v>
       </c>
@@ -21314,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>3</v>
       </c>
@@ -21334,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>3</v>
       </c>
@@ -21354,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>3</v>
       </c>
@@ -21374,7 +21366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>3</v>
       </c>
@@ -21394,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>2</v>
       </c>
@@ -21414,7 +21406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>2</v>
       </c>
@@ -21434,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>3</v>
       </c>
@@ -21454,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>3</v>
       </c>
@@ -21474,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>2</v>
       </c>
@@ -21494,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>2</v>
       </c>
@@ -21514,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>3</v>
       </c>
@@ -21534,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>3</v>
       </c>
@@ -21554,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>2</v>
       </c>
@@ -21574,7 +21566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>3</v>
       </c>
@@ -21594,7 +21586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>2</v>
       </c>
@@ -21614,7 +21606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>3</v>
       </c>
@@ -21634,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>2</v>
       </c>
@@ -21654,7 +21646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>2</v>
       </c>
@@ -21674,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>2</v>
       </c>
@@ -21694,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>3</v>
       </c>
@@ -21714,7 +21706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>2</v>
       </c>
@@ -21734,7 +21726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>2</v>
       </c>
@@ -21754,7 +21746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>2</v>
       </c>
@@ -21774,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>3</v>
       </c>
@@ -21794,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>3</v>
       </c>
@@ -21814,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>2</v>
       </c>
@@ -21834,7 +21826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>2</v>
       </c>
@@ -21854,7 +21846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>3</v>
       </c>
@@ -21874,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>2</v>
       </c>
@@ -21894,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>2</v>
       </c>
@@ -21914,7 +21906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>2</v>
       </c>
@@ -21934,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>2</v>
       </c>
@@ -21954,7 +21946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>2</v>
       </c>
@@ -21974,7 +21966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>2</v>
       </c>
@@ -21994,7 +21986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>3</v>
       </c>
@@ -22014,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>2</v>
       </c>
@@ -22034,7 +22026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>2</v>
       </c>
@@ -22054,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>2</v>
       </c>
@@ -22074,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>2</v>
       </c>
@@ -22094,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>2</v>
       </c>
@@ -22114,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>2</v>
       </c>
@@ -22134,7 +22126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>2</v>
       </c>
@@ -22154,7 +22146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>2</v>
       </c>
@@ -22174,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>2</v>
       </c>
@@ -22194,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>2</v>
       </c>
@@ -22214,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>2</v>
       </c>
@@ -22234,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>2</v>
       </c>
@@ -22254,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>2</v>
       </c>
@@ -22274,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>3</v>
       </c>
@@ -22294,7 +22286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>3</v>
       </c>
@@ -22314,7 +22306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>3</v>
       </c>
@@ -22334,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>2</v>
       </c>
@@ -22354,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>2</v>
       </c>
@@ -22374,7 +22366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>2</v>
       </c>
@@ -22394,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>3</v>
       </c>
@@ -22414,7 +22406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>2</v>
       </c>
@@ -22434,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>2</v>
       </c>
@@ -22454,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>2</v>
       </c>
@@ -22474,7 +22466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>2</v>
       </c>
@@ -22494,7 +22486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>3</v>
       </c>
@@ -22514,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>2</v>
       </c>
@@ -22534,7 +22526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>2</v>
       </c>
@@ -22554,7 +22546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>2</v>
       </c>
@@ -22574,7 +22566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>3</v>
       </c>
@@ -22594,7 +22586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>3</v>
       </c>
@@ -22614,7 +22606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>2</v>
       </c>
@@ -22634,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>2</v>
       </c>
@@ -22654,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>2</v>
       </c>
@@ -22674,7 +22666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>3</v>
       </c>
@@ -22694,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>3</v>
       </c>
@@ -22714,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>2</v>
       </c>
@@ -22734,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>2</v>
       </c>
@@ -22754,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>2</v>
       </c>
@@ -22774,7 +22766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>2</v>
       </c>
@@ -22794,7 +22786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>2</v>
       </c>
@@ -22814,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>2</v>
       </c>
@@ -22834,7 +22826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>3</v>
       </c>
@@ -22854,7 +22846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>2</v>
       </c>
@@ -22874,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>2</v>
       </c>
@@ -22894,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>3</v>
       </c>
@@ -22914,7 +22906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>3</v>
       </c>
@@ -22934,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>2</v>
       </c>
@@ -22954,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>2</v>
       </c>
@@ -22974,7 +22966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>2</v>
       </c>
@@ -22994,7 +22986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>2</v>
       </c>
@@ -23014,7 +23006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>3</v>
       </c>
@@ -23034,7 +23026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>3</v>
       </c>
@@ -23054,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>2</v>
       </c>
@@ -23074,7 +23066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>2</v>
       </c>
@@ -23094,7 +23086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>2</v>
       </c>
@@ -23114,7 +23106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>2</v>
       </c>
@@ -23134,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>2</v>
       </c>
@@ -23154,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>2</v>
       </c>
@@ -23174,7 +23166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>2</v>
       </c>
@@ -23194,7 +23186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>2</v>
       </c>
@@ -23214,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>2</v>
       </c>
@@ -23234,7 +23226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>2</v>
       </c>
@@ -23254,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>2</v>
       </c>
@@ -23274,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>2</v>
       </c>
@@ -23294,7 +23286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>3</v>
       </c>
@@ -23314,7 +23306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>3</v>
       </c>
@@ -23334,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>2</v>
       </c>
@@ -23354,7 +23346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>2</v>
       </c>
@@ -23374,7 +23366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>3</v>
       </c>
@@ -23394,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>2</v>
       </c>
@@ -23414,7 +23406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>2</v>
       </c>
@@ -23434,7 +23426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>2</v>
       </c>
@@ -23454,7 +23446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>2</v>
       </c>
@@ -23474,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>2</v>
       </c>
@@ -23494,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>2</v>
       </c>
@@ -23514,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>2</v>
       </c>
@@ -23534,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>3</v>
       </c>
@@ -23554,7 +23546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>2</v>
       </c>
@@ -23574,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>2</v>
       </c>
@@ -23594,7 +23586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>2</v>
       </c>
@@ -23614,7 +23606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>3</v>
       </c>
@@ -23634,7 +23626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>2</v>
       </c>
@@ -23654,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>2</v>
       </c>
@@ -23674,7 +23666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>2</v>
       </c>
@@ -23694,7 +23686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>2</v>
       </c>
@@ -23714,7 +23706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>2</v>
       </c>
@@ -23734,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>2</v>
       </c>
@@ -23754,7 +23746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>3</v>
       </c>
@@ -23774,7 +23766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>3</v>
       </c>
@@ -23794,7 +23786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>3</v>
       </c>
@@ -23814,7 +23806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>2</v>
       </c>
@@ -23834,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>2</v>
       </c>
@@ -23854,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>3</v>
       </c>
@@ -23874,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>2</v>
       </c>
@@ -23894,7 +23886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>3</v>
       </c>
@@ -23914,7 +23906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>2</v>
       </c>
@@ -23934,7 +23926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>2</v>
       </c>
@@ -23954,7 +23946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>2</v>
       </c>
@@ -23974,7 +23966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>3</v>
       </c>
@@ -23994,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>2</v>
       </c>
@@ -24014,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>2</v>
       </c>
@@ -24034,7 +24026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>2</v>
       </c>
@@ -24054,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>2</v>
       </c>
@@ -24074,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>2</v>
       </c>
@@ -24094,7 +24086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>2</v>
       </c>
@@ -24114,7 +24106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>2</v>
       </c>
@@ -24134,7 +24126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>2</v>
       </c>
@@ -24154,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>2</v>
       </c>
@@ -24174,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>2</v>
       </c>
@@ -24194,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>2</v>
       </c>
@@ -24214,7 +24206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>2</v>
       </c>
@@ -24234,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
         <v>2</v>
       </c>
@@ -24254,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
         <v>2</v>
       </c>
@@ -24274,7 +24266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
         <v>3</v>
       </c>
@@ -24294,7 +24286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
         <v>2</v>
       </c>
@@ -24314,7 +24306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>2</v>
       </c>
@@ -24334,7 +24326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>3</v>
       </c>
@@ -24354,7 +24346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>3</v>
       </c>
@@ -24374,7 +24366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
         <v>3</v>
       </c>
@@ -24394,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
         <v>2</v>
       </c>
@@ -24414,7 +24406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -24434,7 +24426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>2</v>
       </c>
@@ -24454,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>2</v>
       </c>
@@ -24474,7 +24466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
         <v>2</v>
       </c>
@@ -24494,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
         <v>2</v>
       </c>
@@ -24514,7 +24506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
         <v>2</v>
       </c>
@@ -24534,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
         <v>2</v>
       </c>
@@ -24554,7 +24546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
         <v>2</v>
       </c>
@@ -24574,7 +24566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
         <v>2</v>
       </c>
@@ -24594,7 +24586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
         <v>2</v>
       </c>
@@ -24614,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
         <v>2</v>
       </c>
@@ -24634,7 +24626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
         <v>2</v>
       </c>
@@ -24654,7 +24646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
         <v>2</v>
       </c>
@@ -24674,7 +24666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
         <v>2</v>
       </c>
@@ -24694,7 +24686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
         <v>2</v>
       </c>
@@ -24714,7 +24706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
         <v>3</v>
       </c>
@@ -24734,7 +24726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
         <v>3</v>
       </c>
@@ -24754,7 +24746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
         <v>2</v>
       </c>
@@ -24774,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
         <v>2</v>
       </c>
@@ -24794,7 +24786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
         <v>3</v>
       </c>
@@ -24814,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
         <v>2</v>
       </c>
@@ -24834,7 +24826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
         <v>2</v>
       </c>
@@ -24854,7 +24846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
         <v>2</v>
       </c>
@@ -24874,7 +24866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
         <v>2</v>
       </c>
@@ -24894,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
         <v>2</v>
       </c>
@@ -24914,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
         <v>3</v>
       </c>
@@ -24934,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
         <v>3</v>
       </c>
@@ -24954,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
         <v>2</v>
       </c>
@@ -24974,7 +24966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
         <v>2</v>
       </c>
@@ -24994,7 +24986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
         <v>2</v>
       </c>
@@ -25014,7 +25006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1013" t="s">
         <v>3</v>
       </c>
@@ -25034,7 +25026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1014" t="s">
         <v>2</v>
       </c>

--- a/Predictions_QWEN0.5B/wave123_all_predictions/finetuned_predictions_imputedw123.xlsx
+++ b/Predictions_QWEN0.5B/wave123_all_predictions/finetuned_predictions_imputedw123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave123_all_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F12CE-3C90-4146-B109-3BF7EF0FE8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44A8C6-991E-409D-9349-26D2F9D5F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="25">
   <si>
     <t>Predicted_Label</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Cohen's kappa</t>
+  </si>
+  <si>
+    <t>f_0</t>
+  </si>
+  <si>
+    <t>f_c</t>
+  </si>
+  <si>
+    <t>Sigma_k</t>
   </si>
 </sst>
 </file>
@@ -4277,7 +4286,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4582B97E-212F-4B69-B24A-C5A1506B955C}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4582B97E-212F-4B69-B24A-C5A1506B955C}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -4633,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5058,6 +5067,13 @@
         <f>(K14*LN(K14)+(1-K14)*LN(1-K14))*(-1)</f>
         <v>0.53689174290913</v>
       </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <f>(543+231)</f>
+        <v>774</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -5078,8 +5094,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <f>(757*568/1013)+(256*445/1013)</f>
+        <v>536.91609081934848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -5106,7 +5129,7 @@
         <v>0.49798765429538872</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5125,8 +5148,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18">
+        <f>SQRT(N15*(1-(N15/1013)))/(1013-N16)</f>
+        <v>2.8384497150227238E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -5146,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5206,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -5226,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -5266,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -5286,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -5326,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -5346,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -5366,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -5386,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
